--- a/ICI fund flow/mmf_data_hist_2022.xlsx
+++ b/ICI fund flow/mmf_data_hist_2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vl/Desktop/Github/Api-Tracking/ICI fund flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59851C-A23B-594D-9106-EB4566CB33D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6FAB64-4E45-724F-A294-611C97445797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60740" yWindow="500" windowWidth="33260" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,8 +682,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -700,6 +703,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -710,12 +716,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1062,73 +1062,73 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="112" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="117" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="114" t="s">
+      <c r="I6" s="119" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="112" t="s">
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="114" t="s">
+      <c r="O6" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="112" t="s">
+      <c r="P6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="112" t="s">
+      <c r="T6" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="V6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="119" t="s">
+      <c r="W6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="121" t="s">
+      <c r="X6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="112" t="s">
+      <c r="Y6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="112" t="s">
+      <c r="Z6" s="113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1141,8 +1141,8 @@
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="118"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="120"/>
       <c r="J7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1155,7 @@
       <c r="M7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="113"/>
+      <c r="N7" s="114"/>
       <c r="O7" s="12" t="s">
         <v>19</v>
       </c>
@@ -1165,15 +1165,15 @@
       <c r="Q7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -10311,44 +10311,37 @@
       <c r="Z125" s="41"/>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A126" s="111" t="s">
+      <c r="A126" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="B126" s="111"/>
-      <c r="C126" s="111"/>
-      <c r="D126" s="111"/>
-      <c r="E126" s="111"/>
-      <c r="F126" s="111"/>
-      <c r="G126" s="111"/>
-      <c r="H126" s="111"/>
-      <c r="I126" s="111"/>
-      <c r="J126" s="111"/>
-      <c r="K126" s="111"/>
-      <c r="L126" s="111"/>
-      <c r="M126" s="111"/>
-      <c r="N126" s="111"/>
-      <c r="O126" s="111"/>
-      <c r="P126" s="111"/>
-      <c r="Q126" s="111"/>
-      <c r="R126" s="111"/>
-      <c r="S126" s="111"/>
-      <c r="T126" s="111"/>
-      <c r="U126" s="111"/>
-      <c r="V126" s="111"/>
-      <c r="W126" s="111"/>
+      <c r="B126" s="118"/>
+      <c r="C126" s="118"/>
+      <c r="D126" s="118"/>
+      <c r="E126" s="118"/>
+      <c r="F126" s="118"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="118"/>
+      <c r="I126" s="118"/>
+      <c r="J126" s="118"/>
+      <c r="K126" s="118"/>
+      <c r="L126" s="118"/>
+      <c r="M126" s="118"/>
+      <c r="N126" s="118"/>
+      <c r="O126" s="118"/>
+      <c r="P126" s="118"/>
+      <c r="Q126" s="118"/>
+      <c r="R126" s="118"/>
+      <c r="S126" s="118"/>
+      <c r="T126" s="118"/>
+      <c r="U126" s="118"/>
+      <c r="V126" s="118"/>
+      <c r="W126" s="118"/>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.2">
       <c r="AF128" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="O6:Q6"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="A126:W126"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="T6:T7"/>
@@ -10361,6 +10354,13 @@
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="O6:Q6"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="50" orientation="landscape" r:id="rId1"/>
@@ -10435,73 +10435,73 @@
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="112" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="114" t="s">
+      <c r="I6" s="113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="115"/>
-      <c r="L6" s="115"/>
-      <c r="M6" s="116"/>
-      <c r="N6" s="112" t="s">
+      <c r="K6" s="116"/>
+      <c r="L6" s="116"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="113" t="s">
         <v>1</v>
       </c>
-      <c r="O6" s="114" t="s">
+      <c r="O6" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="P6" s="115"/>
-      <c r="Q6" s="116"/>
-      <c r="R6" s="112" t="s">
+      <c r="P6" s="116"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="112" t="s">
+      <c r="T6" s="113" t="s">
         <v>8</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="V6" s="113" t="s">
         <v>18</v>
       </c>
-      <c r="W6" s="119" t="s">
+      <c r="W6" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="121" t="s">
+      <c r="X6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="112" t="s">
+      <c r="Y6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="Z6" s="112" t="s">
+      <c r="Z6" s="113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:28" s="4" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
@@ -10514,8 +10514,8 @@
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="113"/>
-      <c r="I7" s="113"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="114"/>
       <c r="J7" s="12" t="s">
         <v>19</v>
       </c>
@@ -10528,7 +10528,7 @@
       <c r="M7" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="113"/>
+      <c r="N7" s="114"/>
       <c r="O7" s="12" t="s">
         <v>19</v>
       </c>
@@ -10538,15 +10538,15 @@
       <c r="Q7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="113"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
-      <c r="W7" s="120"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="113"/>
-      <c r="Z7" s="113"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="114"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="112"/>
+      <c r="Y7" s="114"/>
+      <c r="Z7" s="114"/>
     </row>
     <row r="8" spans="1:28" s="41" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="31">
@@ -19749,6 +19749,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="R6:R7"/>
     <mergeCell ref="A126:Z126"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="Y6:Y7"/>
@@ -19765,9 +19768,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="R6:R7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" scale="50" orientation="landscape" r:id="rId1"/>
@@ -19836,61 +19836,61 @@
       <c r="A5" s="29"/>
     </row>
     <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="112" t="s">
+      <c r="A6" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="112" t="s">
+      <c r="C6" s="113" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="114" t="s">
+      <c r="D6" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="112" t="s">
+      <c r="E6" s="116"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="113" t="s">
         <v>2</v>
       </c>
-      <c r="I6" s="114" t="s">
+      <c r="I6" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="115"/>
-      <c r="K6" s="115"/>
-      <c r="L6" s="116"/>
-      <c r="M6" s="114" t="s">
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="115"/>
-      <c r="O6" s="116"/>
-      <c r="P6" s="112" t="s">
+      <c r="N6" s="116"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="113" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="112" t="s">
+      <c r="Q6" s="113" t="s">
         <v>9</v>
       </c>
-      <c r="R6" s="112" t="s">
+      <c r="R6" s="113" t="s">
         <v>6</v>
       </c>
-      <c r="S6" s="112" t="s">
+      <c r="S6" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="121" t="s">
+      <c r="T6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="112" t="s">
+      <c r="U6" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="V6" s="112" t="s">
+      <c r="V6" s="113" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114"/>
       <c r="D7" s="12" t="s">
         <v>19</v>
       </c>
@@ -19903,7 +19903,7 @@
       <c r="G7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="113"/>
+      <c r="H7" s="114"/>
       <c r="I7" s="12" t="s">
         <v>19</v>
       </c>
@@ -19925,13 +19925,13 @@
       <c r="O7" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="113"/>
-      <c r="Q7" s="113"/>
-      <c r="R7" s="113"/>
-      <c r="S7" s="113"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="113"/>
-      <c r="V7" s="113"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="114"/>
+      <c r="R7" s="114"/>
+      <c r="S7" s="114"/>
+      <c r="T7" s="112"/>
+      <c r="U7" s="114"/>
+      <c r="V7" s="114"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="36">
